--- a/SupplementaryMaterial/TableS2/output/singleplot_statistics_Panel.xlsx
+++ b/SupplementaryMaterial/TableS2/output/singleplot_statistics_Panel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="42">
   <si>
     <t>k</t>
   </si>
@@ -123,6 +123,21 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>WHOG_CIP.txt</t>
+  </si>
+  <si>
+    <t>WHOK_CIP.txt</t>
+  </si>
+  <si>
+    <t>WHOL_CIP.txt</t>
+  </si>
+  <si>
+    <t>WHOM_CIP.txt</t>
+  </si>
+  <si>
+    <t>WHON_CIP.txt</t>
   </si>
 </sst>
 </file>
@@ -167,33 +182,645 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="true" applyFill="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyFill="true" applyNumberFormat="true" borderId="0" fillId="3" fontId="0" numFmtId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="165">
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="5"/>
+  <cellXfs count="210">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="4"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="5"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Standard" xfId="0"/>
     <cellStyle name="XLConnect.Header" xfId="1"/>
     <cellStyle name="XLConnect.String" xfId="2"/>
     <cellStyle name="XLConnect.Numeric" xfId="3"/>
@@ -207,326 +834,326 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="H1" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="I1" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="J1" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="K1" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="L1" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="M1" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="N1" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="O1" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="P1" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="Q1" s="124" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="3">
+      <c r="A2" s="125" t="n">
         <v>5.0</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s" s="2">
+      <c r="B2" s="130" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="n" s="3">
-        <v>2.6437095806312847</v>
-      </c>
-      <c r="G2" t="n" s="3">
-        <v>0.6047692415612755</v>
-      </c>
-      <c r="H2" t="n" s="3">
-        <v>0.598794185565833</v>
-      </c>
-      <c r="I2" t="n" s="3">
-        <v>0.058206007449152206</v>
-      </c>
-      <c r="J2" t="n" s="3">
-        <v>-2.06968973989001</v>
-      </c>
-      <c r="K2" t="n" s="3">
-        <v>0.10899405420691824</v>
-      </c>
-      <c r="L2" t="n" s="3">
-        <v>0.03807415657305059</v>
-      </c>
-      <c r="M2" t="n" s="3">
-        <v>0.0030091302110349235</v>
-      </c>
-      <c r="N2" t="n" s="3">
-        <v>0.023817213037108178</v>
-      </c>
-      <c r="O2" t="n" s="3">
-        <v>0.00327216845995653</v>
-      </c>
-      <c r="P2" t="s" s="2">
+      <c r="F2" s="150" t="n">
+        <v>0.6919907320251042</v>
+      </c>
+      <c r="G2" s="155" t="n">
+        <v>0.13756287307432916</v>
+      </c>
+      <c r="H2" s="160" t="n">
+        <v>0.856492456702185</v>
+      </c>
+      <c r="I2" s="165" t="n">
+        <v>0.12003438901959879</v>
+      </c>
+      <c r="J2" s="170" t="n">
+        <v>-2.2218575458818264</v>
+      </c>
+      <c r="K2" s="175" t="n">
+        <v>0.3451114322193488</v>
+      </c>
+      <c r="L2" s="180" t="n">
+        <v>0.12978981878686857</v>
+      </c>
+      <c r="M2" s="185" t="n">
+        <v>0.05035415061274877</v>
+      </c>
+      <c r="N2" s="190" t="n">
+        <v>0.0327323595015861</v>
+      </c>
+      <c r="O2" s="195" t="n">
+        <v>0.009351339672539425</v>
+      </c>
+      <c r="P2" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" t="n" s="3">
-        <v>0.31</v>
+      <c r="Q2" s="205" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n" s="3">
+      <c r="A3" s="126" t="n">
         <v>4.0</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s" s="2">
+      <c r="B3" s="131" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="n" s="3">
+      <c r="F3" s="151" t="n">
         <v>0.7396271524641307</v>
       </c>
-      <c r="G3" t="n" s="3">
+      <c r="G3" s="156" t="n">
         <v>0.0663908598303411</v>
       </c>
-      <c r="H3" t="n" s="3">
+      <c r="H3" s="161" t="n">
         <v>0.6795621613473479</v>
       </c>
-      <c r="I3" t="n" s="3">
+      <c r="I3" s="166" t="n">
         <v>0.08561530147659496</v>
       </c>
-      <c r="J3" t="n" s="3">
+      <c r="J3" s="171" t="n">
         <v>-75.60444734444901</v>
       </c>
-      <c r="K3" t="n" s="3">
+      <c r="K3" s="176" t="n">
         <v>85.2214356419201</v>
       </c>
-      <c r="L3" t="n" s="3">
+      <c r="L3" s="181" t="n">
         <v>17433.956855483626</v>
       </c>
-      <c r="M3" t="n" s="3">
+      <c r="M3" s="186" t="n">
         <v>31329.59824297843</v>
       </c>
-      <c r="N3" t="n" s="3">
+      <c r="N3" s="191" t="n">
         <v>29.833703778906465</v>
       </c>
-      <c r="O3" t="n" s="3">
+      <c r="O3" s="196" t="n">
         <v>44.724510295709024</v>
       </c>
-      <c r="P3" t="s" s="2">
+      <c r="P3" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" t="n" s="3">
+      <c r="Q3" s="206" t="n">
         <v>510.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n" s="3">
+      <c r="A4" s="127" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s" s="2">
+      <c r="B4" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="n" s="3">
-        <v>2.6437095806312847</v>
-      </c>
-      <c r="G4" t="n" s="3">
-        <v>0.6047692415612755</v>
-      </c>
-      <c r="H4" t="n" s="3">
-        <v>0.598794185565833</v>
-      </c>
-      <c r="I4" t="n" s="3">
-        <v>0.058206007449152206</v>
-      </c>
-      <c r="J4" t="n" s="3">
-        <v>-2.06968973989001</v>
-      </c>
-      <c r="K4" t="n" s="3">
-        <v>0.10899405420691824</v>
-      </c>
-      <c r="L4" t="n" s="3">
-        <v>0.03807415657305059</v>
-      </c>
-      <c r="M4" t="n" s="3">
-        <v>0.0030091302110349235</v>
-      </c>
-      <c r="N4" t="n" s="3">
-        <v>0.023817213037108178</v>
-      </c>
-      <c r="O4" t="n" s="3">
-        <v>0.00327216845995653</v>
-      </c>
-      <c r="P4" t="s" s="2">
+      <c r="F4" s="152" t="n">
+        <v>0.5355865796607251</v>
+      </c>
+      <c r="G4" s="157" t="n">
+        <v>0.1169782077804884</v>
+      </c>
+      <c r="H4" s="162" t="n">
+        <v>0.9339625758794624</v>
+      </c>
+      <c r="I4" s="167" t="n">
+        <v>0.2764610086746185</v>
+      </c>
+      <c r="J4" s="172" t="n">
+        <v>-15.625702940790452</v>
+      </c>
+      <c r="K4" s="177" t="n">
+        <v>9.82760713403612</v>
+      </c>
+      <c r="L4" s="182" t="n">
+        <v>2091.902669118659</v>
+      </c>
+      <c r="M4" s="187" t="n">
+        <v>3709.42315789232</v>
+      </c>
+      <c r="N4" s="192" t="n">
+        <v>10.867043381440958</v>
+      </c>
+      <c r="O4" s="197" t="n">
+        <v>13.058035653367373</v>
+      </c>
+      <c r="P4" s="202" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" t="n" s="3">
-        <v>0.31</v>
+      <c r="Q4" s="207" t="n">
+        <v>510.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n" s="3">
+      <c r="A5" s="128" t="n">
         <v>2.0</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s" s="2">
+      <c r="B5" s="133" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="n" s="3">
-        <v>2.6437095806312847</v>
-      </c>
-      <c r="G5" t="n" s="3">
-        <v>0.6047692415612755</v>
-      </c>
-      <c r="H5" t="n" s="3">
-        <v>0.598794185565833</v>
-      </c>
-      <c r="I5" t="n" s="3">
-        <v>0.058206007449152206</v>
-      </c>
-      <c r="J5" t="n" s="3">
-        <v>-2.06968973989001</v>
-      </c>
-      <c r="K5" t="n" s="3">
-        <v>0.10899405420691824</v>
-      </c>
-      <c r="L5" t="n" s="3">
-        <v>0.03807415657305059</v>
-      </c>
-      <c r="M5" t="n" s="3">
-        <v>0.0030091302110349235</v>
-      </c>
-      <c r="N5" t="n" s="3">
-        <v>0.023817213037108178</v>
-      </c>
-      <c r="O5" t="n" s="3">
-        <v>0.00327216845995653</v>
-      </c>
-      <c r="P5" t="s" s="2">
+      <c r="F5" s="153" t="n">
+        <v>3.48919313367557</v>
+      </c>
+      <c r="G5" s="158" t="n">
+        <v>0.7715314057375097</v>
+      </c>
+      <c r="H5" s="163" t="n">
+        <v>0.6175616996598488</v>
+      </c>
+      <c r="I5" s="168" t="n">
+        <v>0.04836845554646323</v>
+      </c>
+      <c r="J5" s="173" t="n">
+        <v>-1.1833608281343873</v>
+      </c>
+      <c r="K5" s="178" t="n">
+        <v>0.03508448183816428</v>
+      </c>
+      <c r="L5" s="183" t="n">
+        <v>0.25566793321023623</v>
+      </c>
+      <c r="M5" s="188" t="n">
+        <v>0.014001269395401555</v>
+      </c>
+      <c r="N5" s="193" t="n">
+        <v>0.21219252778761433</v>
+      </c>
+      <c r="O5" s="198" t="n">
+        <v>0.014178017187654306</v>
+      </c>
+      <c r="P5" s="203" t="s">
         <v>35</v>
       </c>
-      <c r="Q5" t="n" s="3">
-        <v>0.31</v>
+      <c r="Q5" s="208" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="3">
+      <c r="A6" s="129" t="n">
         <v>1.0</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s" s="2">
+      <c r="B6" s="134" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="D6" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s" s="2">
+      <c r="E6" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="n" s="3">
-        <v>2.6437095806312847</v>
-      </c>
-      <c r="G6" t="n" s="3">
-        <v>0.6047692415612755</v>
-      </c>
-      <c r="H6" t="n" s="3">
-        <v>0.598794185565833</v>
-      </c>
-      <c r="I6" t="n" s="3">
-        <v>0.058206007449152206</v>
-      </c>
-      <c r="J6" t="n" s="3">
-        <v>-2.06968973989001</v>
-      </c>
-      <c r="K6" t="n" s="3">
-        <v>0.10899405420691824</v>
-      </c>
-      <c r="L6" t="n" s="3">
-        <v>0.03807415657305059</v>
-      </c>
-      <c r="M6" t="n" s="3">
-        <v>0.0030091302110349235</v>
-      </c>
-      <c r="N6" t="n" s="3">
-        <v>0.023817213037108178</v>
-      </c>
-      <c r="O6" t="n" s="3">
-        <v>0.00327216845995653</v>
-      </c>
-      <c r="P6" t="s" s="2">
+      <c r="F6" s="154" t="n">
+        <v>1.579435587011269</v>
+      </c>
+      <c r="G6" s="159" t="n">
+        <v>0.24217830695749334</v>
+      </c>
+      <c r="H6" s="164" t="n">
+        <v>0.8112041509333818</v>
+      </c>
+      <c r="I6" s="169" t="n">
+        <v>0.03853334003883377</v>
+      </c>
+      <c r="J6" s="174" t="n">
+        <v>-0.6038195889348612</v>
+      </c>
+      <c r="K6" s="179" t="n">
+        <v>0.04279286519341901</v>
+      </c>
+      <c r="L6" s="184" t="n">
+        <v>1.4437529551564146</v>
+      </c>
+      <c r="M6" s="189" t="n">
+        <v>0.1455525332126202</v>
+      </c>
+      <c r="N6" s="194" t="n">
+        <v>1.740506552378609</v>
+      </c>
+      <c r="O6" s="199" t="n">
+        <v>0.1911849998191955</v>
+      </c>
+      <c r="P6" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" t="n" s="3">
-        <v>0.31</v>
+      <c r="Q6" s="209" t="n">
+        <v>64.0</v>
       </c>
     </row>
   </sheetData>
